--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -278,6 +278,21 @@
   <si>
     <t>9/18-20/2023</t>
   </si>
+  <si>
+    <t>10/10-11/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>11/28-30/2023,12/01/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,9 +671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,7 +2933,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K140" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3329,12 +3341,12 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A77" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,64 +3368,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>41519</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3439,18 +3451,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3497,7 +3509,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>61.85</v>
+        <v>59.35</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3507,7 +3519,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5119,15 +5131,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45200</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5135,26 +5151,38 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="A90" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45243</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>4</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5164,13 +5192,21 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -5180,10 +5216,14 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45278</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5199,7 +5239,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45292</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5215,7 +5257,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45323</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5231,7 +5275,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45352</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5247,7 +5293,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45383</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5263,7 +5311,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45413</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5279,7 +5329,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45444</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5295,7 +5347,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45474</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5311,7 +5365,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45505</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5327,7 +5383,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45536</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5343,7 +5401,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45566</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5359,7 +5419,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45597</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5375,7 +5437,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45627</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5903,20 +5967,52 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5965,10 +6061,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A20" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5990,67 +6086,67 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>BAES, ELMER</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6076,18 +6172,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6144,7 +6240,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.582999999999998</v>
+        <v>34.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6358,7 +6454,7 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="23">
         <v>44986</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -6655,7 +6751,9 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6664,10 +6762,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>2</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
@@ -8301,17 +8403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8394,12 +8496,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
